--- a/corpus/corpus_v3.xlsx
+++ b/corpus/corpus_v3.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CFA8F-3A91-461D-AA63-7C15203E5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84358545-36E0-430D-A495-56B9684EADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Corpus" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6493" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6517" uniqueCount="3645">
   <si>
     <t>id</t>
   </si>
@@ -10913,13 +10914,55 @@
   </si>
   <si>
     <t>https://github.com/pdftables/vba-pdftables-api,https://cran.r-project.org/package=pdftables,https://cran.r-project.org/package=ptable,https://github.com/drj11/pdftables,https://github.com/chrisdev/pdftables,https://pypi.org/project/pdftables/,https://github.com/pdftables/python-pdftables-api,https://cran.r-project.org/package=aftables,https://cran.r-project.org/package=tables,https://github.com/expersso/pdftables,https://github.com/cran/pdftables</t>
+  </si>
+  <si>
+    <t>Id of the entry in the corpus</t>
+  </si>
+  <si>
+    <t>mention label as it appears in the original text</t>
+  </si>
+  <si>
+    <t>doi of the paper the mention name appears</t>
+  </si>
+  <si>
+    <t>papragraph</t>
+  </si>
+  <si>
+    <t>text where the original mention appears in the paper</t>
+  </si>
+  <si>
+    <t>topics of the paper as obtained from OpenALEX. Only those with confidence &gt;0.5 are considered</t>
+  </si>
+  <si>
+    <t>authors of the paper</t>
+  </si>
+  <si>
+    <t>authors of the paper (Open Alex ids)</t>
+  </si>
+  <si>
+    <t>url (groung truth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL that the annotators think the software refers to. </t>
+  </si>
+  <si>
+    <t>Person or persons responsible for validating the ground truth</t>
+  </si>
+  <si>
+    <t>Possible comments about the mention</t>
+  </si>
+  <si>
+    <t>List of possible URLs that software refers to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language fetched from paragraph is exists </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10936,6 +10979,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10977,12 +11033,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11288,7 +11346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I471" sqref="I471"/>
     </sheetView>
   </sheetViews>
@@ -34191,4 +34249,115 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F9A52-5DE9-4BC1-9153-519F302D09A4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>